--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>305270.0255588216</v>
+        <v>302610.6348571017</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673424</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.17527345239875</v>
+        <v>355.7882455186851</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.36947747424265</v>
+        <v>413.3694774742427</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>319.6758027219779</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.42897189744228</v>
+        <v>28.42897189744254</v>
       </c>
       <c r="S2" t="n">
-        <v>164.9659064044097</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1909921045651</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -741,10 +741,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>45.46298287371967</v>
       </c>
       <c r="E3" t="n">
-        <v>55.66299776448203</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>102.245459762452</v>
       </c>
       <c r="I3" t="n">
-        <v>53.78292798254636</v>
+        <v>53.78292798254643</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>35.93520916873157</v>
+        <v>35.93520916873172</v>
       </c>
       <c r="S3" t="n">
-        <v>152.4699175854099</v>
+        <v>152.46991758541</v>
       </c>
       <c r="T3" t="n">
         <v>195.9954299974343</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>124.1012958719991</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>224.2403064031859</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>125.0659900475127</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>251.8824793560345</v>
       </c>
       <c r="G5" t="n">
         <v>12.9169039459368</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>117.717820238445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -981,10 +981,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>132.5508984421992</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>74.52922194059541</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
@@ -993,7 +993,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>125.418938209067</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>160.6689020420926</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.240868529237908</v>
+        <v>35.95245435214181</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>8.90616225919203</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>143.4516207720315</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>315.399834261529</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184543</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615203</v>
       </c>
       <c r="T11" t="n">
-        <v>64.19886440759304</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530791</v>
+        <v>10.48847705530784</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.27648352789304</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905233</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>30.05706037504557</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085811788</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365929</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.739499688033</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>38.61213096654954</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833792</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>38.61213096654686</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833768</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>107.402108275623</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2956,13 +2956,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>107.4021082756238</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>107.4021082756233</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106.207802455916</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,10 +3433,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>38.61213096654731</v>
+        <v>4.019807611471347</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833852</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880065</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,10 +4141,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>26.13627195705746</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1202.965429606028</v>
+        <v>1156.907763899938</v>
       </c>
       <c r="C2" t="n">
-        <v>834.0029126656163</v>
+        <v>1156.907763899938</v>
       </c>
       <c r="D2" t="n">
-        <v>475.7372140588659</v>
+        <v>798.6420652931871</v>
       </c>
       <c r="E2" t="n">
-        <v>475.7372140588659</v>
+        <v>798.6420652931871</v>
       </c>
       <c r="F2" t="n">
-        <v>64.75130926925831</v>
+        <v>791.6965645439836</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>374.1516378023243</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,52 +4328,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>51.24678656800311</v>
+        <v>201.859189208671</v>
       </c>
       <c r="K2" t="n">
-        <v>397.7205401363258</v>
+        <v>227.4289843315401</v>
       </c>
       <c r="L2" t="n">
-        <v>879.828496285081</v>
+        <v>709.5369404802946</v>
       </c>
       <c r="M2" t="n">
-        <v>1432.87303523178</v>
+        <v>1262.581479426993</v>
       </c>
       <c r="N2" t="n">
-        <v>1725.783922576871</v>
+        <v>1528.992082910762</v>
       </c>
       <c r="O2" t="n">
-        <v>2197.45411475728</v>
+        <v>2000.66227509117</v>
       </c>
       <c r="P2" t="n">
-        <v>2562.339328400155</v>
+        <v>2365.547488734045</v>
       </c>
       <c r="Q2" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="R2" t="n">
-        <v>2533.623195170416</v>
+        <v>2533.623195170415</v>
       </c>
       <c r="S2" t="n">
-        <v>2366.990966479093</v>
+        <v>2533.623195170415</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.990966479093</v>
+        <v>2533.623195170415</v>
       </c>
       <c r="U2" t="n">
-        <v>2366.990966479093</v>
+        <v>2279.894920317319</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.990966479093</v>
+        <v>2279.894920317319</v>
       </c>
       <c r="W2" t="n">
-        <v>2014.222311208979</v>
+        <v>2279.894920317319</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.756552947899</v>
+        <v>1906.429162056239</v>
       </c>
       <c r="Y2" t="n">
-        <v>1250.617220972087</v>
+        <v>1516.289830080428</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>698.2314283026748</v>
       </c>
       <c r="D3" t="n">
-        <v>549.2970186414235</v>
+        <v>652.3092233797256</v>
       </c>
       <c r="E3" t="n">
-        <v>493.0717683742699</v>
+        <v>493.0717683742701</v>
       </c>
       <c r="F3" t="n">
-        <v>346.5372104011549</v>
+        <v>346.537210401155</v>
       </c>
       <c r="G3" t="n">
-        <v>208.851218633658</v>
+        <v>208.8512186336582</v>
       </c>
       <c r="H3" t="n">
-        <v>105.5729764493631</v>
+        <v>105.5729764493632</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,22 +4410,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="K3" t="n">
-        <v>80.14400076498873</v>
+        <v>341.9645854074412</v>
       </c>
       <c r="L3" t="n">
-        <v>300.976523369266</v>
+        <v>794.274939038594</v>
       </c>
       <c r="M3" t="n">
-        <v>880.7805935960123</v>
+        <v>1374.07900926534</v>
       </c>
       <c r="N3" t="n">
-        <v>1491.637365688262</v>
+        <v>1510.38683075747</v>
       </c>
       <c r="O3" t="n">
-        <v>1984.036293344365</v>
+        <v>2002.785758413573</v>
       </c>
       <c r="P3" t="n">
-        <v>2362.226775767269</v>
+        <v>2380.976240836477</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>471.4046719634572</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>471.4046719634572</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>471.4046719634572</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>323.4915783810641</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>176.6016308831537</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4489,49 +4489,49 @@
         <v>51.24678656800311</v>
       </c>
       <c r="K4" t="n">
-        <v>128.9446319797723</v>
+        <v>128.9446319797721</v>
       </c>
       <c r="L4" t="n">
-        <v>283.8975582778889</v>
+        <v>283.8975582778884</v>
       </c>
       <c r="M4" t="n">
-        <v>457.6628161503379</v>
+        <v>457.6628161503371</v>
       </c>
       <c r="N4" t="n">
-        <v>632.7309409968813</v>
+        <v>632.7309409968802</v>
       </c>
       <c r="O4" t="n">
-        <v>778.4183943752803</v>
+        <v>778.418394375279</v>
       </c>
       <c r="P4" t="n">
-        <v>879.5584967969151</v>
+        <v>879.5584967969137</v>
       </c>
       <c r="Q4" t="n">
-        <v>879.5584967969151</v>
+        <v>879.5584967969137</v>
       </c>
       <c r="R4" t="n">
-        <v>879.5584967969151</v>
+        <v>879.5584967969137</v>
       </c>
       <c r="S4" t="n">
-        <v>879.5584967969151</v>
+        <v>879.5584967969137</v>
       </c>
       <c r="T4" t="n">
-        <v>653.0531367936969</v>
+        <v>653.0531367936956</v>
       </c>
       <c r="U4" t="n">
-        <v>653.0531367936969</v>
+        <v>526.7238539174201</v>
       </c>
       <c r="V4" t="n">
-        <v>653.0531367936969</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="W4" t="n">
-        <v>653.0531367936969</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="X4" t="n">
-        <v>653.0531367936969</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y4" t="n">
-        <v>653.0531367936969</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1622.172219013161</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C5" t="n">
-        <v>1253.209702072749</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="D5" t="n">
-        <v>894.944003465999</v>
+        <v>756.6369969428285</v>
       </c>
       <c r="E5" t="n">
-        <v>509.1557508677548</v>
+        <v>756.6369969428285</v>
       </c>
       <c r="F5" t="n">
         <v>502.2102501185513</v>
@@ -4565,22 +4565,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817394</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>643.3537986017849</v>
+        <v>155.0441911359788</v>
       </c>
       <c r="L5" t="n">
-        <v>1196.167056847984</v>
+        <v>294.3728469772319</v>
       </c>
       <c r="M5" t="n">
-        <v>1382.866469673392</v>
+        <v>926.0906579605437</v>
       </c>
       <c r="N5" t="n">
-        <v>1659.267837608651</v>
+        <v>1553.39832602039</v>
       </c>
       <c r="O5" t="n">
-        <v>2206.429042375728</v>
+        <v>1887.84832128596</v>
       </c>
       <c r="P5" t="n">
         <v>2317.163367625255</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2347.539466667867</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2093.847763413018</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2093.847763413018</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1741.079108142904</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1622.172219013161</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1622.172219013161</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="6">
@@ -4629,16 +4629,16 @@
         <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>436.1387200370916</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
-        <v>289.6041620639766</v>
+        <v>335.5090190736601</v>
       </c>
       <c r="G6" t="n">
-        <v>152.1627644231985</v>
+        <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>51.24678656800311</v>
+        <v>97.15164357768663</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4653,16 +4653,16 @@
         <v>1003.695982596827</v>
       </c>
       <c r="M6" t="n">
-        <v>1183.193318951432</v>
+        <v>1637.22146322308</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.14579119009</v>
+        <v>2271.400447002119</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>2430.912759670879</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339688</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>374.1082746728546</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>374.1082746728546</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>374.1082746728546</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>374.1082746728546</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>374.1082746728546</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>205.501429668238</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="T7" t="n">
-        <v>825.5522713397128</v>
+        <v>695.0743100591154</v>
       </c>
       <c r="U7" t="n">
-        <v>536.4000949173926</v>
+        <v>405.9221336367952</v>
       </c>
       <c r="V7" t="n">
-        <v>536.4000949173926</v>
+        <v>279.2363374660205</v>
       </c>
       <c r="W7" t="n">
-        <v>536.4000949173926</v>
+        <v>279.2363374660205</v>
       </c>
       <c r="X7" t="n">
-        <v>374.1082746728546</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="Y7" t="n">
-        <v>374.1082746728546</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1203.388756704967</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="C8" t="n">
-        <v>834.426239764555</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="D8" t="n">
-        <v>476.1605411578045</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2353.59368700598</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1980.1279287449</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y8" t="n">
-        <v>1589.988596769088</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4881,19 +4881,19 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>507.241398742976</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
         <v>1884.562538506775</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.0678491612455</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="C10" t="n">
-        <v>455.1316662333386</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="D10" t="n">
-        <v>305.0150268210029</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1388.962086547623</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1388.962086547623</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.277598341736</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>844.8604283047756</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>844.8604283047756</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.0678491612455</v>
+        <v>60.24291006213647</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2309.06237243946</v>
+        <v>1872.090169197698</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.099855499049</v>
+        <v>1553.504478024437</v>
       </c>
       <c r="D11" t="n">
-        <v>1581.834156892299</v>
+        <v>1195.238779417686</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.045904294054</v>
+        <v>809.4505268194422</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044468</v>
+        <v>809.4505268194422</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455922</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592071</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706885</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656956</v>
+        <v>695.1615405656958</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.95612308783</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484041</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535295</v>
+        <v>3033.988513535298</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479994</v>
+        <v>3493.127967479999</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464065</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796035</v>
+        <v>3876.88329579604</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796035</v>
+        <v>3776.999350345382</v>
       </c>
       <c r="T11" t="n">
-        <v>3812.035958010588</v>
+        <v>3573.020743926746</v>
       </c>
       <c r="U11" t="n">
-        <v>3812.035958010588</v>
+        <v>3319.526802048274</v>
       </c>
       <c r="V11" t="n">
-        <v>3812.035958010588</v>
+        <v>2988.463914704704</v>
       </c>
       <c r="W11" t="n">
-        <v>3459.267302740473</v>
+        <v>2635.695259434589</v>
       </c>
       <c r="X11" t="n">
-        <v>3085.801544479394</v>
+        <v>2262.22950117351</v>
       </c>
       <c r="Y11" t="n">
-        <v>2695.662212503582</v>
+        <v>1872.090169197698</v>
       </c>
     </row>
     <row r="12">
@@ -5106,31 +5106,31 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870412</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046655</v>
+        <v>470.7769964046661</v>
       </c>
       <c r="L12" t="n">
-        <v>488.5008422034065</v>
+        <v>889.4740370626181</v>
       </c>
       <c r="M12" t="n">
-        <v>996.4574081599346</v>
+        <v>996.4574081599334</v>
       </c>
       <c r="N12" t="n">
-        <v>1532.266717861145</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
         <v>2000.207762193667</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>628.509771844491</v>
+        <v>374.5442528261669</v>
       </c>
       <c r="C13" t="n">
-        <v>628.509771844491</v>
+        <v>374.5442528261669</v>
       </c>
       <c r="D13" t="n">
-        <v>628.509771844491</v>
+        <v>224.4276134138312</v>
       </c>
       <c r="E13" t="n">
-        <v>480.5966782620978</v>
+        <v>224.4276134138312</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620978</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="G13" t="n">
-        <v>313.0986950732861</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648144</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344809</v>
+        <v>710.5788654344815</v>
       </c>
       <c r="M13" t="n">
         <v>1086.20859537694</v>
@@ -5212,37 +5212,37 @@
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.36296874281</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.743466925585</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276104</v>
+        <v>1868.627619458881</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710544</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659995</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.579607454108</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>895.1624374171477</v>
+        <v>814.5429355999245</v>
       </c>
       <c r="X13" t="n">
-        <v>667.1728865191303</v>
+        <v>586.5533847019071</v>
       </c>
       <c r="Y13" t="n">
-        <v>667.1728865191303</v>
+        <v>556.1927176564067</v>
       </c>
     </row>
     <row r="14">
@@ -5261,13 +5261,13 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5282,16 +5282,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400689</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5446,25 +5446,25 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
         <v>1688.385853854706</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611856</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713839</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703087</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,25 +5528,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,16 +5586,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5604,13 +5604,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235168</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.50678425811</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.50678425811</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052223</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015262</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117245</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5789,7 +5789,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5829,25 +5829,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>740.5562989961525</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1368.154262550759</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327666</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048597</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133955</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310024</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,13 +5908,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580263</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580263</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603204</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704554</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806536</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630063</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327639</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048571</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133955</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310024</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630037</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6312,16 +6312,16 @@
         <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098229</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C28" t="n">
-        <v>814.419420881916</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695802</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871872</v>
+        <v>197.0043242297706</v>
       </c>
       <c r="F28" t="n">
-        <v>369.499740389277</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041569</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.78619868161</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138405</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
     <row r="29">
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,13 +6546,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6683,10 +6683,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6707,7 +6707,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355936</v>
@@ -6716,7 +6716,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852254</v>
@@ -6777,22 +6777,22 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273902</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797186</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,67 +6917,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436268</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273902</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273902</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>1872.470231673185</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257311</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133953</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310022</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797742</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336514</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949673</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,7 +7208,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876684</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310025</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>407.9027098310025</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7336,7 +7336,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7357,25 +7357,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179081</v>
       </c>
     </row>
     <row r="41">
@@ -7403,19 +7403,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,13 +7424,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7448,10 +7448,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7579,10 +7579,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,28 +7643,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7682,7 +7682,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057243</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778174</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654817</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830886</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851782</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.96287513099469</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7988,7 +7988,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>180.3262245269168</v>
+        <v>153.5582610306329</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -7997,7 +7997,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.53535463353003</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>29.11089843987675</v>
+        <v>29.11089843987695</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>137.0243543672208</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>191.138434130589</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>82.89611620532975</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>165.9403736854648</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>458.614287143079</v>
       </c>
       <c r="N6" t="n">
-        <v>369.9956874605997</v>
+        <v>439.9214566933068</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241563</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>49.8730575094786</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184557</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615212</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>137.7399559468561</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.5554966540442</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.2535238992737</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.8133067990524</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>188.5275929770492</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405099</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864991</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,10 +23899,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.845153664061741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.0033420516628</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0033420516655</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>45.44677382459356</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>43.26526345295046</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>32.89260457060088</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393057</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>73.62417772602083</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.45968844823103</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>73.62417772602129</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>73.62417772602129</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,10 +25321,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>110.003342051665</v>
+        <v>144.595665406741</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823065</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.8900140445871</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959075.4011718507</v>
+        <v>959075.4011718513</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389276</v>
@@ -26320,40 +26320,40 @@
         <v>369468.7964389273</v>
       </c>
       <c r="E2" t="n">
-        <v>329665.1599234784</v>
+        <v>329665.1599234786</v>
       </c>
       <c r="F2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="G2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="H2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605025</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="J2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="M2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="N2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="O2" t="n">
         <v>363215.9698605028</v>
       </c>
-      <c r="O2" t="n">
-        <v>363215.9698605027</v>
-      </c>
       <c r="P2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605029</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>678074.6944992435</v>
+        <v>678074.6944992426</v>
       </c>
       <c r="C3" t="n">
-        <v>102513.4470555627</v>
+        <v>102513.4470555636</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230265</v>
+        <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545773</v>
+        <v>313577.1573545782</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.268770429</v>
+        <v>189308.2687704279</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273072</v>
+        <v>81897.40371273109</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202374</v>
+        <v>49839.57413202338</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220641.3432238817</v>
+        <v>220641.3432238819</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26424,37 +26424,37 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7401.949902073128</v>
+        <v>7401.949902073127</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171965</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719709</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719672</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
+        <v>7507.36846171967</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719669</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719709</v>
+      </c>
+      <c r="M4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="K4" t="n">
-        <v>7507.368461719674</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719696</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719694</v>
-      </c>
       <c r="N4" t="n">
-        <v>7507.368461719672</v>
+        <v>7507.36846171965</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719709</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83058.74367843164</v>
+        <v>83058.74367843161</v>
       </c>
       <c r="C5" t="n">
         <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738574</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-612305.984962629</v>
+        <v>-612305.9849626286</v>
       </c>
       <c r="C6" t="n">
-        <v>-16870.22205583948</v>
+        <v>-16870.2220558405</v>
       </c>
       <c r="D6" t="n">
-        <v>-148267.8490706882</v>
+        <v>-148267.8490706884</v>
       </c>
       <c r="E6" t="n">
-        <v>-76451.43240055762</v>
+        <v>-76672.56371453319</v>
       </c>
       <c r="F6" t="n">
-        <v>65277.80280444688</v>
+        <v>65243.06487901227</v>
       </c>
       <c r="G6" t="n">
-        <v>254586.071574876</v>
+        <v>254551.3336494402</v>
       </c>
       <c r="H6" t="n">
-        <v>254586.071574876</v>
+        <v>254551.3336494403</v>
       </c>
       <c r="I6" t="n">
-        <v>254586.0715748757</v>
+        <v>254551.3336494403</v>
       </c>
       <c r="J6" t="n">
-        <v>86980.89376489342</v>
+        <v>86946.15583945773</v>
       </c>
       <c r="K6" t="n">
-        <v>254586.071574876</v>
+        <v>254551.3336494404</v>
       </c>
       <c r="L6" t="n">
-        <v>254586.0715748759</v>
+        <v>254551.3336494401</v>
       </c>
       <c r="M6" t="n">
-        <v>172688.6678621452</v>
+        <v>172653.9299367092</v>
       </c>
       <c r="N6" t="n">
-        <v>204746.4974428523</v>
+        <v>204711.7595174168</v>
       </c>
       <c r="O6" t="n">
-        <v>254586.0715748759</v>
+        <v>254551.3336494403</v>
       </c>
       <c r="P6" t="n">
-        <v>254586.0715748758</v>
+        <v>254551.3336494404</v>
       </c>
     </row>
   </sheetData>
@@ -26713,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.8984351719852</v>
+        <v>480.8984351719841</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26796,13 +26796,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490088</v>
+        <v>969.2208239490101</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.8984351719852</v>
+        <v>480.8984351719841</v>
       </c>
       <c r="C3" t="n">
-        <v>112.5776651660799</v>
+        <v>112.5776651660809</v>
       </c>
       <c r="D3" t="n">
-        <v>340.588791779474</v>
+        <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974113</v>
+        <v>268.176345097412</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267234</v>
+        <v>165.7342631267225</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.63599184897</v>
+        <v>328.6359918489712</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506383</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.63599184897</v>
+        <v>328.6359918489715</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506398</v>
+        <v>203.4874641506383</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.63599184897</v>
+        <v>328.6359918489712</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506383</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335.5585682110818</v>
+        <v>26.94559614479545</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>319.6758027219778</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>135.9438818439015</v>
+        <v>135.9438818439017</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.9659064044098</v>
       </c>
       <c r="T2" t="n">
         <v>214.6330037351249</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1909921045651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27461,10 +27461,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>101.9820826909191</v>
       </c>
       <c r="E3" t="n">
-        <v>101.9820826909189</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>43.02248958696919</v>
+        <v>167.1237854589683</v>
       </c>
       <c r="H4" t="n">
         <v>154.5170303828789</v>
@@ -27558,7 +27558,7 @@
         <v>129.3715892953087</v>
       </c>
       <c r="J4" t="n">
-        <v>32.0485714226969</v>
+        <v>32.04857142269704</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.54637954072463</v>
+        <v>13.54637954072479</v>
       </c>
       <c r="R4" t="n">
-        <v>138.3012002237164</v>
+        <v>138.3012002237165</v>
       </c>
       <c r="S4" t="n">
         <v>208.9037734431248</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2717278710641</v>
+        <v>161.2057378235514</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>154.993566385677</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27667,22 +27667,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>252.013280440024</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27701,10 +27701,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>25.09418201320179</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>70.53999045278847</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>126.718705114761</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>65.04075334694457</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>379.6895015430239</v>
+        <v>345.97791572012</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>137.5278003873771</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>77.29707522518041</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.940255363782247e-12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-4.19584234654781e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3.674726067769407e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.267994994951431e-12</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.785973998768142e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.933260040892401</v>
+        <v>1.933260040892397</v>
       </c>
       <c r="H2" t="n">
-        <v>19.79899939378931</v>
+        <v>19.79899939378927</v>
       </c>
       <c r="I2" t="n">
-        <v>74.53200772650438</v>
+        <v>74.53200772650422</v>
       </c>
       <c r="J2" t="n">
-        <v>164.0830293956916</v>
+        <v>164.0830293956912</v>
       </c>
       <c r="K2" t="n">
-        <v>245.917926926667</v>
+        <v>245.9179269266665</v>
       </c>
       <c r="L2" t="n">
-        <v>305.0829339031279</v>
+        <v>305.0829339031272</v>
       </c>
       <c r="M2" t="n">
-        <v>339.4635471553481</v>
+        <v>339.4635471553474</v>
       </c>
       <c r="N2" t="n">
-        <v>344.9564222465336</v>
+        <v>344.956422246533</v>
       </c>
       <c r="O2" t="n">
-        <v>325.7325677149098</v>
+        <v>325.7325677149091</v>
       </c>
       <c r="P2" t="n">
-        <v>278.0052104553786</v>
+        <v>278.005210455378</v>
       </c>
       <c r="Q2" t="n">
-        <v>208.7703352409195</v>
+        <v>208.770335240919</v>
       </c>
       <c r="R2" t="n">
-        <v>121.4401460437074</v>
+        <v>121.4401460437071</v>
       </c>
       <c r="S2" t="n">
-        <v>44.05416318183564</v>
+        <v>44.05416318183554</v>
       </c>
       <c r="T2" t="n">
-        <v>8.46284582900649</v>
+        <v>8.462845829006472</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1546608032713921</v>
+        <v>0.1546608032713917</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.034385313388798</v>
+        <v>1.034385313388796</v>
       </c>
       <c r="H3" t="n">
-        <v>9.989984474044448</v>
+        <v>9.989984474044427</v>
       </c>
       <c r="I3" t="n">
-        <v>35.61370486886872</v>
+        <v>35.61370486886864</v>
       </c>
       <c r="J3" t="n">
-        <v>97.72672822678994</v>
+        <v>97.72672822678975</v>
       </c>
       <c r="K3" t="n">
-        <v>167.0305442238394</v>
+        <v>167.0305442238391</v>
       </c>
       <c r="L3" t="n">
-        <v>224.593179558388</v>
+        <v>224.5931795583875</v>
       </c>
       <c r="M3" t="n">
-        <v>262.0896471687319</v>
+        <v>262.0896471687313</v>
       </c>
       <c r="N3" t="n">
-        <v>269.0263802572033</v>
+        <v>269.0263802572027</v>
       </c>
       <c r="O3" t="n">
-        <v>246.1065793657989</v>
+        <v>246.1065793657983</v>
       </c>
       <c r="P3" t="n">
-        <v>197.5222270803575</v>
+        <v>197.5222270803571</v>
       </c>
       <c r="Q3" t="n">
-        <v>132.0383778985421</v>
+        <v>132.0383778985418</v>
       </c>
       <c r="R3" t="n">
-        <v>64.22262498391156</v>
+        <v>64.22262498391142</v>
       </c>
       <c r="S3" t="n">
-        <v>19.21325351842789</v>
+        <v>19.21325351842784</v>
       </c>
       <c r="T3" t="n">
-        <v>4.169298697387304</v>
+        <v>4.169298697387295</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06805166535452624</v>
+        <v>0.06805166535452609</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.867193899490465</v>
+        <v>0.8671938994904631</v>
       </c>
       <c r="H4" t="n">
-        <v>7.710142124560685</v>
+        <v>7.710142124560669</v>
       </c>
       <c r="I4" t="n">
-        <v>26.07888563194963</v>
+        <v>26.07888563194957</v>
       </c>
       <c r="J4" t="n">
-        <v>61.31060869397587</v>
+        <v>61.31060869397574</v>
       </c>
       <c r="K4" t="n">
-        <v>100.7521639589831</v>
+        <v>100.7521639589829</v>
       </c>
       <c r="L4" t="n">
-        <v>128.9280821115188</v>
+        <v>128.9280821115185</v>
       </c>
       <c r="M4" t="n">
-        <v>135.9365855355826</v>
+        <v>135.9365855355823</v>
       </c>
       <c r="N4" t="n">
-        <v>132.7043173647546</v>
+        <v>132.7043173647543</v>
       </c>
       <c r="O4" t="n">
-        <v>122.573915902525</v>
+        <v>122.5739159025248</v>
       </c>
       <c r="P4" t="n">
-        <v>104.8831603529195</v>
+        <v>104.8831603529192</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.61566371096976</v>
+        <v>72.6156637109696</v>
       </c>
       <c r="R4" t="n">
-        <v>38.99219115345308</v>
+        <v>38.99219115345299</v>
       </c>
       <c r="S4" t="n">
-        <v>15.11282459384746</v>
+        <v>15.11282459384743</v>
       </c>
       <c r="T4" t="n">
-        <v>3.705283025095622</v>
+        <v>3.705283025095614</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04730148542675269</v>
+        <v>0.04730148542675259</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869147</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639238</v>
+        <v>49.49729877639242</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203916</v>
+        <v>410.2059184203919</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975126</v>
+        <v>614.792336797513</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544655</v>
+        <v>762.7042574544661</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954559</v>
+        <v>848.6554437954566</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180167</v>
+        <v>862.3875761180174</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956803</v>
+        <v>814.3281336956809</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620358</v>
+        <v>695.0102219620362</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825973</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696631</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495317</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469209</v>
+        <v>89.03390294469216</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193139</v>
       </c>
       <c r="K12" t="n">
-        <v>417.574675759838</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>156.457254324057</v>
+        <v>561.4806834747752</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821478</v>
+        <v>250.1980451314277</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340504</v>
+        <v>672.563237034051</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924473</v>
+        <v>615.2639659924478</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383445</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605174</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627656</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.17012847696438</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535158</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798454</v>
+        <v>65.19695102798458</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770063</v>
+        <v>339.8400926770066</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531028</v>
+        <v>331.7594548531031</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806241</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493064</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811709</v>
+        <v>97.48008457811716</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493539</v>
+        <v>37.78190904493542</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377483</v>
+        <v>9.26317018837749</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,28 +32549,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>638.9422653403558</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,28 +32783,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>213.3000196296242</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O27" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33266,16 +33266,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>194.5189324111251</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33497,25 +33497,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>752.2150000824579</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>362.5355639238086</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>602.4605829984181</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>208.6096528357818</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,16 +34445,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>391.605194951448</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>152.1337400410787</v>
       </c>
       <c r="K2" t="n">
-        <v>349.9734884528511</v>
+        <v>25.82807588168592</v>
       </c>
       <c r="L2" t="n">
-        <v>486.9777334835911</v>
+        <v>486.9777334835904</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6308474209078</v>
+        <v>558.6308474209071</v>
       </c>
       <c r="N2" t="n">
-        <v>295.8695831768595</v>
+        <v>269.1016196805749</v>
       </c>
       <c r="O2" t="n">
-        <v>476.4345375559684</v>
+        <v>476.4345375559677</v>
       </c>
       <c r="P2" t="n">
-        <v>368.5709228715917</v>
+        <v>368.5709228715911</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>198.7796360263742</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>29.18910524948043</v>
+        <v>293.6543422620587</v>
       </c>
       <c r="L3" t="n">
-        <v>223.0631541457346</v>
+        <v>456.8791450819725</v>
       </c>
       <c r="M3" t="n">
-        <v>585.6606769967134</v>
+        <v>585.6606769967129</v>
       </c>
       <c r="N3" t="n">
-        <v>617.0270425174235</v>
+        <v>137.6846681738694</v>
       </c>
       <c r="O3" t="n">
-        <v>497.372654198084</v>
+        <v>497.3726541980834</v>
       </c>
       <c r="P3" t="n">
-        <v>382.0105883059644</v>
+        <v>382.010588305964</v>
       </c>
       <c r="Q3" t="n">
-        <v>202.1338915483696</v>
+        <v>183.1950379431093</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>78.48267213310024</v>
+        <v>78.48267213310002</v>
       </c>
       <c r="L4" t="n">
-        <v>156.5181073718349</v>
+        <v>156.5181073718346</v>
       </c>
       <c r="M4" t="n">
-        <v>175.5204624974232</v>
+        <v>175.5204624974229</v>
       </c>
       <c r="N4" t="n">
-        <v>176.8364897439832</v>
+        <v>176.8364897439829</v>
       </c>
       <c r="O4" t="n">
-        <v>147.1590438165647</v>
+        <v>147.1590438165645</v>
       </c>
       <c r="P4" t="n">
-        <v>102.1617196178129</v>
+        <v>102.1617196178127</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>279.1933009447059</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>337.82827804603</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
         <v>247.6524856312129</v>
@@ -35021,19 +35021,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>639.9247279053061</v>
       </c>
       <c r="N6" t="n">
-        <v>570.6590628673317</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
         <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676411</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>546.4575832202789</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937053</v>
+        <v>229.1600138937056</v>
       </c>
       <c r="K11" t="n">
-        <v>394.702485752532</v>
+        <v>394.7024857525325</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844783</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681832</v>
+        <v>618.3092105681839</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214265</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739936</v>
+        <v>584.2299222739941</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067662</v>
+        <v>463.7772262067667</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081477</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553074</v>
+        <v>88.01360235553096</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526472</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>17.9028745441828</v>
+        <v>422.926303694901</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>108.0640112094094</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507171</v>
+        <v>541.2215249507177</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480029</v>
+        <v>472.6677215480033</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240146</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655345</v>
+        <v>14.87641069655356</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186276</v>
+        <v>59.91672319186287</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.60990180702</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703705</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388469</v>
+        <v>379.4239696388472</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141999</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776311</v>
+        <v>95.37638356776326</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060491</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>496.3460208959114</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066272</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>79.325612215294</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O27" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>55.9645526312509</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37145,25 +37145,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>620.8732879991246</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>222.5537898377871</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>471.1188709150848</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>66.47561891376348</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>253.0508151715738</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
